--- a/classfiers/bottleneck/knn/bottleneck-knn-results.xlsx
+++ b/classfiers/bottleneck/knn/bottleneck-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09375</v>
+        <v>0.38</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1578947368421053</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4950811608460403</v>
+        <v>0.9443084455324356</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5185686178061977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5517241379310345</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7833333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5384615384615384</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="E5" t="n">
-        <v>0.749221183800623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2727272727272728</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.57398753894081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4468968531468532</v>
+        <v>0.876</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2421052631578947</v>
+        <v>0.8263157894736842</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2935570893563434</v>
+        <v>0.8021264943565084</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6240383669454008</v>
+        <v>0.9888616891064871</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/knn/bottleneck-knn-results.xlsx
+++ b/classfiers/bottleneck/knn/bottleneck-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.38</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5507246376811594</v>
+        <v>0.4255319148936171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9443084455324356</v>
+        <v>0.9073891625615763</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.876</v>
+        <v>0.854054054054054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8263157894736842</v>
+        <v>0.6355555555555557</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8021264943565084</v>
+        <v>0.6224690203413608</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9888616891064871</v>
+        <v>0.8437000547345374</v>
       </c>
     </row>
   </sheetData>
